--- a/src/test/resources/doc/exportTemp_image.xlsx
+++ b/src/test/resources/doc/exportTemp_image.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="工资汇总" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>类 别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,25 +153,17 @@
   </si>
   <si>
     <t>{{i2.image}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{i3.image}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{i4.image}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -719,10 +711,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -732,7 +724,7 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
@@ -743,7 +735,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="24">
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -762,7 +754,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -779,7 +771,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
@@ -800,7 +792,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1">
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -814,12 +806,10 @@
       <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="33.75" customHeight="1">
+    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -833,12 +823,10 @@
       <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1">
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
@@ -856,7 +844,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1">
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -873,7 +861,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="24.75" customHeight="1">
+    <row r="9" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -889,7 +877,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -908,7 +896,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
     </row>
   </sheetData>
